--- a/docs/BernardM_March_2021.xlsx
+++ b/docs/BernardM_March_2021.xlsx
@@ -49,7 +49,7 @@
     <t>test</t>
   </si>
   <si>
-    <t>lekker man lekker</t>
+    <t>catto entertaino</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -514,13 +514,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
